--- a/DataSets/Пример_исх_данных_для_ВГУ.xlsx
+++ b/DataSets/Пример_исх_данных_для_ВГУ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shevchenko.NE\Desktop\KnowledgeExtractor\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\Desktop\Ucheba\Системы, основанные на знаниях\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B95E4D-DF2A-4BC3-B677-17951AB244B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="510" windowWidth="21600" windowHeight="11235" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="510" windowWidth="21600" windowHeight="11235" tabRatio="794"/>
   </bookViews>
   <sheets>
     <sheet name="Первичный осмотр" sheetId="9" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="188">
   <si>
     <t>62</t>
   </si>
@@ -582,11 +581,14 @@
   <si>
     <t>Налет на языке</t>
   </si>
+  <si>
+    <t>обложен белым налетом,с желтым налётом</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -1001,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,12 +1309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2094"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1933,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>52</v>
